--- a/src/test/resources/ExcelSheet/Book1.xlsx
+++ b/src/test/resources/ExcelSheet/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace196\GrowmingMavenProject\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C53465C-C4A2-49C7-8AE0-16BB62B5806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C398F-CC06-4569-AC66-A04B31B28E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69C31096-DB4A-4077-B317-95EA25524255}"/>
+    <workbookView xWindow="2190" yWindow="1725" windowWidth="14985" windowHeight="7875" xr2:uid="{69C31096-DB4A-4077-B317-95EA25524255}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Samsung 5G case</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Vivo 5G phone</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message </t>
+  </si>
+  <si>
+    <t>Sorry! We couldn't find any matching items for</t>
   </si>
 </sst>
 </file>
@@ -407,50 +416,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F401F-CA4C-46A9-950D-049D05E660A9}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
